--- a/TestCase_VWO.xlsx
+++ b/TestCase_VWO.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Tips" sheetId="2" r:id="rId2"/>
+    <sheet name="Tips" sheetId="2" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId2"/>
     <sheet name="VWO" sheetId="11" r:id="rId3"/>
-    <sheet name="TestCaseForCoffeeMachine" sheetId="10" r:id="rId4"/>
+    <sheet name="Registrationpage" sheetId="12" r:id="rId4"/>
+    <sheet name="TestCaseForCoffeeMachine" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="197">
   <si>
     <t>Test Case Template for Project</t>
   </si>
@@ -537,6 +538,87 @@
   </si>
   <si>
     <t>Validate Sign in functinality when we enter wrong password with correct email</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Testcases</t>
+  </si>
+  <si>
+    <t>Verify page load</t>
+  </si>
+  <si>
+    <t>Verify UI Elements:</t>
+  </si>
+  <si>
+    <t>Verify Required Fields:</t>
+  </si>
+  <si>
+    <t>Verify Optional Fields:</t>
+  </si>
+  <si>
+    <t>Verify First Name Field:</t>
+  </si>
+  <si>
+    <t>Verify Last Name Field:</t>
+  </si>
+  <si>
+    <t>Verify Email Field:</t>
+  </si>
+  <si>
+    <t>Verify Password Field:</t>
+  </si>
+  <si>
+    <t>Verify Password Confirm Field:</t>
+  </si>
+  <si>
+    <t>Verify Continue button with details</t>
+  </si>
+  <si>
+    <t>Verify Continue button without details</t>
+  </si>
+  <si>
+    <t>Verify Password Confirm field when it is not same as Password field</t>
+  </si>
+  <si>
+    <t>Verify Subscribe Field with any selected option</t>
+  </si>
+  <si>
+    <t>Verify Subscribe Field without option</t>
+  </si>
+  <si>
+    <t>Verify Error Messages for Empty Fields</t>
+  </si>
+  <si>
+    <t>Verify Error message for incorrect data in fields</t>
+  </si>
+  <si>
+    <t>Verify Email Field when email id already exists</t>
+  </si>
+  <si>
+    <t>Verify Telephone Field with correct size</t>
+  </si>
+  <si>
+    <t>Verify Telephone Field with incorrect size</t>
+  </si>
+  <si>
+    <t>Varify Email Field with invalid domain</t>
+  </si>
+  <si>
+    <t>Verify Privacy Policy with checked in checkbox</t>
+  </si>
+  <si>
+    <t>Verify Privacy Policy without checked in checkbox</t>
+  </si>
+  <si>
+    <t>Verify Privacy Policy link</t>
+  </si>
+  <si>
+    <t>Verify Redirect After Registration:</t>
+  </si>
+  <si>
+    <t>Verify Successful Registration:</t>
   </si>
 </sst>
 </file>
@@ -546,7 +628,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +733,12 @@
       <color rgb="FF000000"/>
       <name val="Söhne"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -724,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -780,6 +868,7 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,6 +1355,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="101.75" style="20" customWidth="1"/>
+    <col min="2" max="6" width="11" style="20" customWidth="1"/>
+    <col min="7" max="16384" width="11" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="26"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="26"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="26"/>
+    </row>
+    <row r="33" spans="1:1" ht="51.75">
+      <c r="A33" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7868,159 +8104,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="101.75" style="20" customWidth="1"/>
-    <col min="2" max="6" width="11" style="20" customWidth="1"/>
-    <col min="7" max="16384" width="11" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="26"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="26"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="26"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="26"/>
-    </row>
-    <row r="33" spans="1:1" ht="51.75">
-      <c r="A33" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8153,6 +8242,233 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="112.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25">
+      <c r="A1" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" s="33">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17.25">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="33">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="33">
+        <v>21</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="33">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="33">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView topLeftCell="A51" workbookViewId="0">
